--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31891.30897132189</v>
+        <v>6346370.485293049</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31891.30897132189</v>
+        <v>6346370.485293049</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47375.08713709802</v>
+        <v>3999983.602841218</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47375.08713709802</v>
+        <v>3999983.602841218</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610097090.738172</v>
+        <v>63148589.32784857</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12989.82214999507</v>
+        <v>1413032.81427675</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25392.26963136466</v>
+        <v>2734654.036005693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37794.71711273424</v>
+        <v>4056275.257734638</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53061.73244010378</v>
+        <v>5350032.650100143</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68044.90299946276</v>
+        <v>6592930.186904342</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83028.07355882174</v>
+        <v>7835827.723708538</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98552.75846161501</v>
+        <v>9099448.597886471</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113973.305990671</v>
+        <v>10342346.13469066</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>129942.9233334496</v>
+        <v>11500914.01180355</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145225.4393473541</v>
+        <v>12743811.54860774</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160507.9553612586</v>
+        <v>13986709.08541194</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>173099.9876712827</v>
+        <v>15256261.68483187</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185957.3129105996</v>
+        <v>16578607.57718111</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>201692.2886961068</v>
+        <v>17548356.51845437</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218403.2266912395</v>
+        <v>18240066.7999464</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>169</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>670</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>263</v>
